--- a/LintCode.xlsx
+++ b/LintCode.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bhard\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bhard\Documents\GitHub\Interview-Preparation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B06D45E0-38D6-4519-89E7-57CB2B6E3931}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D88BE9D9-D7BD-4BEE-ABC4-7DD6084D3727}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{5B9C00BF-1F67-4250-A66A-1F4C5405717A}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>S.No</t>
   </si>
@@ -51,25 +51,10 @@
     <t>Paint Fence</t>
   </si>
   <si>
-    <t>Topic</t>
-  </si>
-  <si>
-    <t>Difficulty</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>Hard</t>
-  </si>
-  <si>
-    <t>Medium</t>
-  </si>
-  <si>
-    <t>Dynamic Programming</t>
-  </si>
-  <si>
-    <t>Bomb Enemy</t>
+    <t>Line reflection</t>
+  </si>
+  <si>
+    <t>Anagram mapping</t>
   </si>
 </sst>
 </file>
@@ -446,63 +431,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA21D8F6-59D0-43A7-99C6-08E11082554C}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.1796875" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" customWidth="1"/>
     <col min="2" max="2" width="15.26953125" customWidth="1"/>
-    <col min="3" max="3" width="24.7265625" customWidth="1"/>
-    <col min="4" max="4" width="14.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4">
         <f>A3+1</f>
         <v>3</v>
@@ -510,14 +475,8 @@
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5">
         <f>A4+1</f>
         <v>4</v>
@@ -525,50 +484,21 @@
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6">
-        <f>A5+1</f>
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7">
-        <f t="shared" ref="A7:A10" si="0">A6+1</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <f t="shared" si="0"/>
+      <c r="B7" s="1" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <f t="shared" si="0"/>
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -577,9 +507,10 @@
     <hyperlink ref="B3" r:id="rId2" display="https://www.lintcode.com/problem/paint-house-ii/" xr:uid="{27CC5597-E377-4820-B77C-E0A6AB097618}"/>
     <hyperlink ref="B4" r:id="rId3" display="https://www.lintcode.com/problem/paint-house/" xr:uid="{BB3412E1-BE36-441A-9FCC-BAAF7AB76AF6}"/>
     <hyperlink ref="B5" r:id="rId4" display="https://www.lintcode.com/problem/paint-fence/" xr:uid="{CB3C5E6C-ECDC-4CA2-B2AD-09E4093FA4D4}"/>
-    <hyperlink ref="B6" r:id="rId5" display="https://www.lintcode.com/problem/bomb-enemy/" xr:uid="{6D974B4D-29B5-4445-B4B1-6DB5C6A0F674}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{4CCA0E1E-1ADF-478B-ACA6-FA2A7D6C4B09}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{C50F208C-77BA-4987-8F90-E192A2A58477}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>